--- a/xls/results.xlsx
+++ b/xls/results.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RonNollen\Documents\CRL Documents\Benchmarking\twilio\global-table-performance\global-table-performance\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6988A742-FA37-454A-810F-07E78276C636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201203EA-020C-4F1A-90AB-F3D86D81571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{53FA46F8-1AE7-4F56-B1E2-99588F7C0FF2}"/>
+    <workbookView xWindow="2145" yWindow="690" windowWidth="26160" windowHeight="14580" firstSheet="6" activeTab="9" xr2:uid="{53FA46F8-1AE7-4F56-B1E2-99588F7C0FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Insert Exercise Results" sheetId="1" r:id="rId1"/>
     <sheet name="Insert Exercise Graph" sheetId="2" r:id="rId2"/>
     <sheet name="Update Exercise Results" sheetId="5" r:id="rId3"/>
     <sheet name="Update Exercise Graph" sheetId="8" r:id="rId4"/>
+    <sheet name="Update Exercise 2" sheetId="9" r:id="rId5"/>
+    <sheet name="Update Exercise 2 Graph" sheetId="10" r:id="rId6"/>
+    <sheet name="Update Exercise 3" sheetId="11" r:id="rId7"/>
+    <sheet name="Update Exercise 3 Graph" sheetId="12" r:id="rId8"/>
+    <sheet name="Update Exercise 4" sheetId="13" r:id="rId9"/>
+    <sheet name="Update Exercise 4 Graph" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -71,9 +77,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,6 +1024,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="544766592"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1982,6 +1991,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="540473248"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2070,6 +2080,3528 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Milliseconds Between Updates</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 2'!$C$1:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-712C-44A3-92A4-200B6BDEEA48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="329815824"/>
+        <c:axId val="329836624"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>us-east-1 Read Latencies</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 2'!$D$1:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.2989895186658802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2971277214538901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4850145656937701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6086685513447598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7049525152664602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7474849726561201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1845498992472097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0982387110506604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8737272783896497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8753949190125496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0324797018852898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1223249213984197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0461228354795296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1388025286631098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5234279756526004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.9106964507695903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2982907997206095</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6998974502535997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2269626539707605</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.69338091618277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-712C-44A3-92A4-200B6BDEEA48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>us-east-2 Read Latencies</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 2'!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.7765747266092502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8410337187128301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.93564447553638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9633121827448901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0446003278450902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0280975318652801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2962897561586</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3384640000847798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8904647250731399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.92603493205762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.99863934664794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.95657489974396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9163047882115301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0021684240492599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9754368258033401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8324921721266598</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.1083922017185897</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2543329095951101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0447610442071804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1363515953260697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-712C-44A3-92A4-200B6BDEEA48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>us-west-2 Read Latencies</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 2'!$H$1:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1865516311636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.20735601103492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2678967231367599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28451570667741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2537644482875601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.16734905922365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3015707635015901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.32742842446597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.58605983073224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6512735715103499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.69088220578377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7311053857574099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7729989524585399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7062245407141301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.51639044341325</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3495990055614802</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5422750073629699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6596326228516198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7397770687321801</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.82687072065935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-712C-44A3-92A4-200B6BDEEA48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="480933296"/>
+        <c:axId val="480930800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="329815824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329836624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="329836624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329815824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="480930800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480933296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="480933296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="480930800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Milliseconds Between Writes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 3'!$C$1:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7777-481A-B2B0-CEC0D857B184}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="476616560"/>
+        <c:axId val="476607824"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>us-east-1 Read Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 3'!$D$1:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.3670403956731398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.06390612338779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2154350817343098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2328159212743302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4251624180738802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3931152790300598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.76965813684824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8150609511517199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6408803930997502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7672748805213496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7836534544341696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8342218552817497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8806555057171401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8064785380829296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5462969038801999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0013509708229194</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1467494524865902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.34082529253552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5581720318973495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.5335217707726798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7777-481A-B2B0-CEC0D857B184}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>us-east-2 Read Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 3'!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.0671554346036798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.10260838168782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1631113490881702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.17564280211533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2996994440219898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2957347204024101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4913926702875102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5500278541073498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.94271440465217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9540583324971701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.97445536621803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9453545468829501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9925952281917998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.01447539322155</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9334953056094801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5907637086649702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7471208215575604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5452100322255902</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6620195187651401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7217632349388898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7777-481A-B2B0-CEC0D857B184}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>us-west-2 Read Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 3'!$H$1:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.94256377503329003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96700745954955003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0296626660128601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0420452467303101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.11397215247186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.13495668361119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1440021767470601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1612034043511501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.39671870101272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.46982269835615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5052859573906601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5208862716173299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5615259857257799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.59279883681624</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6330009665729199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5894383776564398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7273397286300698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8574734277595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9136283099534399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0024700867062699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7777-481A-B2B0-CEC0D857B184}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="476602416"/>
+        <c:axId val="476599504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="476616560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476607824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476607824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476616560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="476599504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476602416"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="476602416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="476599504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.38209630575839E-2"/>
+          <c:y val="2.5698045936774713E-2"/>
+          <c:w val="0.79878216494124676"/>
+          <c:h val="0.89048025149530408"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Milliseconds Between Inserts</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 4'!$C$1:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15D8-4564-BBEE-836401944CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>us-east-1 MAX Read Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 4'!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>251.57940200006101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251.84819199967001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.96907099962101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>251.91179900139099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251.86775099973599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.02787499983901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>251.978185000552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251.92413299919201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251.963982998859</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255.89507200129401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252.17046799843899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252.16821799949599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253.84260899954799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>252.10618200071599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252.18537500040799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>251.904491999084</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>252.04893000045499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>252.059741000266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>251.97868199938901</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>251.969805000044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-15D8-4564-BBEE-836401944CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>us-east-2 MAX Read Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 4'!$I$1:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>253.11973099996899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252.55853299859101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>425.902413000585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.395326999248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259.09830399905297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263.67118999951299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>258.75410799926601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.49081199944999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252.37615999867501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252.37081299928801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252.254843000628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252.45628599986901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253.51037699874701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>254.429808999702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252.39740199867799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>253.381679000085</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>257.18589499956499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>252.451063999615</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256.94384799862701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>252.472328000294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-15D8-4564-BBEE-836401944CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>us-west-2 MAX Read Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2106537530266344E-2"/>
+                  <c:y val="1.9767727643672857E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-15D8-4564-BBEE-836401944CD0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1299435028248588E-2"/>
+                  <c:y val="-1.1860636586203713E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-15D8-4564-BBEE-836401944CD0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2106537530266461E-2"/>
+                  <c:y val="2.1744500408039998E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-15D8-4564-BBEE-836401944CD0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 4'!$L$1:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>253.11973099996899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252.55853299859101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>425.902413000585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.395326999248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259.09830399905297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>263.67118999951299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>258.75410799926601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.49081199944999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252.37615999867501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252.37081299928801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252.254843000628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252.45628599986901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253.51037699874701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>254.429808999702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252.39740199867799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>253.381679000085</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>257.18589499956499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>252.451063999615</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256.94384799862701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>252.472328000294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-15D8-4564-BBEE-836401944CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>us-east-1 Average Writer Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0492332526230832E-2"/>
+                  <c:y val="-1.5814182114938284E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2106537530266344E-2"/>
+                  <c:y val="-1.7790954879305571E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2106537530266344E-2"/>
+                  <c:y val="1.9767727643672857E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 4'!$M$1:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>459.49000191853798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>451.68547025566897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>451.33173855720298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>451.80591807003202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.46488097496501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>451.49299753320201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>451.199486601545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>451.33604439989398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450.97176877657699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450.99904700486098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>505.633654354736</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>516.11124744977099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>526.05162960489599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>536.06946332999303</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>546.12698917003695</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>457.338237847946</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>367.82772254626201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>376.52148317337202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>385.864655636674</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>396.48539068341501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E34F-4E0C-A4E4-1D0496D0A469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1756345504"/>
+        <c:axId val="1756342592"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>us-east-1 Average Read Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2106537530266344E-2"/>
+                  <c:y val="-1.5814182114938284E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2106537530266344E-2"/>
+                  <c:y val="-1.5814182114938301E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-15D8-4564-BBEE-836401944CD0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 4'!$D$1:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.3670403956731398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.06390612338779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2154350817343098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2328159212743302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4251624180738802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3931152790300598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.76965813684824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8150609511517199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6408803930997502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7672748805213496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7836534544341696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8342218552817497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8806555057171401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8064785380829296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5462969038801999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0013509708229194</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1467494524865902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.34082529253552</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5581720318973495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.5335217707726798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15D8-4564-BBEE-836401944CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>us-east-2 Average Read Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4527845036319613E-2"/>
+                  <c:y val="1.5814182114938211E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.29136400322841E-2"/>
+                  <c:y val="1.7790954879305571E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-15D8-4564-BBEE-836401944CD0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 4'!$G$1:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.06715543460367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.10260838168782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1631113490881799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.17564280211533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29969944402198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2957347204024199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4913926702875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.55002785410736</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9427144046521598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9540583324971701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9744553662180202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9453545468829501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.99259522819185</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.01447539322155</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9334953056094801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.59076370866498</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7471208215575498</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5452100322256603</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6620195187651401</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7217632349388898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-15D8-4564-BBEE-836401944CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>us-west-2 Average Read Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3720742534301856E-2"/>
+                  <c:y val="1.3837409350570999E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.29136400322841E-2"/>
+                  <c:y val="1.5814182114938284E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1299435028248588E-2"/>
+                  <c:y val="-1.1860636586203786E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E34F-4E0C-A4E4-1D0496D0A469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-15D8-4564-BBEE-836401944CD0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Update Exercise 4'!$J$1:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.94256377503329003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96700745954955003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0296626660128601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0420452467303101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.11397215247185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.13495668361119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1440021767470701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1612034043511501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.39671870101272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.46982269835615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5052859573906601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5208862716173299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5615259857257799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.59279883681624</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6330009665729199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5894383776564398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7273397286300698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8574734277595102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9136283099534399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0024700867062699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-15D8-4564-BBEE-836401944CD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1751519328"/>
+        <c:axId val="1755439008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1756345504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756342592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1756342592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Read Latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756345504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1755439008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Read Latency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1751519328"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1751519328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1755439008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2150,6 +5682,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2654,6 +6306,1528 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3236,6 +8410,399 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B308BF87-7D26-452A-466A-8ABD53C4C871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76198</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59A9AD5-D868-37EB-B3E1-2E2273AA121F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DCD04F-503F-2944-DDA1-E24659E02438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73789</cdr:x>
+      <cdr:y>0.04225</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83293</cdr:x>
+      <cdr:y>0.07042</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5759C6-1C3F-F217-D866-FAC9A8C97A11}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11610975" y="271464"/>
+          <a:ext cx="1495425" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>us-east-1 Average Read Latency</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73729</cdr:x>
+      <cdr:y>0.41883</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83051</cdr:x>
+      <cdr:y>0.45738</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA76CA95-93BE-4C54-BE24-4943A93053AF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11601449" y="2690813"/>
+          <a:ext cx="1466851" cy="247651"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>us-east-2 Average Read Latency</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73547</cdr:x>
+      <cdr:y>0.58784</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82869</cdr:x>
+      <cdr:y>0.61749</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6113EE4-D07C-B759-6298-9730E21E210D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11572875" y="3776663"/>
+          <a:ext cx="1466850" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>us-west-2 Average Read Latency</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71308</cdr:x>
+      <cdr:y>0.72869</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.77966</cdr:x>
+      <cdr:y>0.75686</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E9D39B-404A-724D-B4E1-A289822463B0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11220450" y="4681539"/>
+          <a:ext cx="1047750" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>MAX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t> Read Latencies</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11017</cdr:x>
+      <cdr:y>0.54633</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.20339</cdr:x>
+      <cdr:y>0.57598</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078FB6CA-AF3A-0718-9274-C69B84B820DB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1733516" y="3509945"/>
+          <a:ext cx="1466845" cy="190489"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>us-east-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t> Average Write Latency</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08414</cdr:x>
+      <cdr:y>0.15493</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17736</cdr:x>
+      <cdr:y>0.18458</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6307E352-0273-C251-8A13-C9DAC77F1AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1323983" y="995359"/>
+          <a:ext cx="1466845" cy="190490"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Milliseconds Between Writes</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4381,11 +9948,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA39C5B-168B-4C93-94C5-6C0A7B7B5FE0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364289F4-9418-4535-82D9-894DFD85AB46}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
@@ -5298,4 +10880,2398 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D742A9B-4C37-4621-A983-2CFE4B2BD5BB}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1656356534.6055901</v>
+      </c>
+      <c r="B1">
+        <v>1656356593.70719</v>
+      </c>
+      <c r="C1">
+        <v>1000</v>
+      </c>
+      <c r="D1">
+        <v>3.2989895186658802</v>
+      </c>
+      <c r="E1">
+        <v>13979440</v>
+      </c>
+      <c r="F1">
+        <v>2.7765747266092502</v>
+      </c>
+      <c r="G1">
+        <v>16583960</v>
+      </c>
+      <c r="H1">
+        <v>1.1865516311636</v>
+      </c>
+      <c r="I1">
+        <v>38833600</v>
+      </c>
+      <c r="J1">
+        <v>445.22834197679703</v>
+      </c>
+      <c r="K1">
+        <v>326800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1656356593.70719</v>
+      </c>
+      <c r="B2">
+        <v>1656356653.90308</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>3.2971277214538901</v>
+      </c>
+      <c r="E2">
+        <v>13996160</v>
+      </c>
+      <c r="F2">
+        <v>2.8410337187128301</v>
+      </c>
+      <c r="G2">
+        <v>16250400</v>
+      </c>
+      <c r="H2">
+        <v>1.20735601103492</v>
+      </c>
+      <c r="I2">
+        <v>38294120</v>
+      </c>
+      <c r="J2">
+        <v>453.44775563948099</v>
+      </c>
+      <c r="K2">
+        <v>646000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1656356653.90308</v>
+      </c>
+      <c r="B3">
+        <v>1656356714.10674</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="D3">
+        <v>3.4850145656937701</v>
+      </c>
+      <c r="E3">
+        <v>13824000</v>
+      </c>
+      <c r="F3">
+        <v>2.93564447553638</v>
+      </c>
+      <c r="G3">
+        <v>16467200</v>
+      </c>
+      <c r="H3">
+        <v>1.2678967231367599</v>
+      </c>
+      <c r="I3">
+        <v>37968800</v>
+      </c>
+      <c r="J3">
+        <v>451.10545294270003</v>
+      </c>
+      <c r="K3">
+        <v>744000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1656356714.10674</v>
+      </c>
+      <c r="B4">
+        <v>1656356774.11534</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4">
+        <v>3.6086685513447598</v>
+      </c>
+      <c r="E4">
+        <v>13476800</v>
+      </c>
+      <c r="F4">
+        <v>2.9633121827448901</v>
+      </c>
+      <c r="G4">
+        <v>16262400</v>
+      </c>
+      <c r="H4">
+        <v>1.28451570667741</v>
+      </c>
+      <c r="I4">
+        <v>37474400</v>
+      </c>
+      <c r="J4">
+        <v>451.33785619998201</v>
+      </c>
+      <c r="K4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1656356774.11534</v>
+      </c>
+      <c r="B5">
+        <v>1656356834.3335199</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5">
+        <v>3.7049525152664602</v>
+      </c>
+      <c r="E5">
+        <v>13032800</v>
+      </c>
+      <c r="F5">
+        <v>3.0446003278450902</v>
+      </c>
+      <c r="G5">
+        <v>15788000</v>
+      </c>
+      <c r="H5">
+        <v>1.2537644482875601</v>
+      </c>
+      <c r="I5">
+        <v>38687200</v>
+      </c>
+      <c r="J5">
+        <v>451.220338861713</v>
+      </c>
+      <c r="K5">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1656356834.3335199</v>
+      </c>
+      <c r="B6">
+        <v>1656356894.3589201</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>3.7474849726561201</v>
+      </c>
+      <c r="E6">
+        <v>12847200</v>
+      </c>
+      <c r="F6">
+        <v>3.0280975318652801</v>
+      </c>
+      <c r="G6">
+        <v>15885600</v>
+      </c>
+      <c r="H6">
+        <v>1.16734905922365</v>
+      </c>
+      <c r="I6">
+        <v>41143200</v>
+      </c>
+      <c r="J6">
+        <v>451.44532824996099</v>
+      </c>
+      <c r="K6">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1656356894.3589201</v>
+      </c>
+      <c r="B7">
+        <v>1656356954.5673599</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>4.1845498992472097</v>
+      </c>
+      <c r="E7">
+        <v>10413406</v>
+      </c>
+      <c r="F7">
+        <v>3.2962897561586</v>
+      </c>
+      <c r="G7">
+        <v>13290576</v>
+      </c>
+      <c r="H7">
+        <v>1.3015707635015901</v>
+      </c>
+      <c r="I7">
+        <v>33424268</v>
+      </c>
+      <c r="J7">
+        <v>451.11747561492399</v>
+      </c>
+      <c r="K7">
+        <v>925965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1656356954.5673599</v>
+      </c>
+      <c r="B8">
+        <v>1656357014.59112</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>4.0982387110506604</v>
+      </c>
+      <c r="E8">
+        <v>10045224</v>
+      </c>
+      <c r="F8">
+        <v>3.3384640000847798</v>
+      </c>
+      <c r="G8">
+        <v>12476160</v>
+      </c>
+      <c r="H8">
+        <v>1.32742842446597</v>
+      </c>
+      <c r="I8">
+        <v>31352850</v>
+      </c>
+      <c r="J8">
+        <v>451.166995579917</v>
+      </c>
+      <c r="K8">
+        <v>974700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1656357014.59112</v>
+      </c>
+      <c r="B9">
+        <v>1656357074.9983001</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>4.8737272783896497</v>
+      </c>
+      <c r="E9">
+        <v>9948000</v>
+      </c>
+      <c r="F9">
+        <v>3.8904647250731399</v>
+      </c>
+      <c r="G9">
+        <v>12366400</v>
+      </c>
+      <c r="H9">
+        <v>1.58605983073224</v>
+      </c>
+      <c r="I9">
+        <v>30555200</v>
+      </c>
+      <c r="J9">
+        <v>451.91635574322697</v>
+      </c>
+      <c r="K9">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1656357074.9983001</v>
+      </c>
+      <c r="B10">
+        <v>1656357135.0061901</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>4.8753949190125496</v>
+      </c>
+      <c r="E10">
+        <v>9865600</v>
+      </c>
+      <c r="F10">
+        <v>3.92603493205762</v>
+      </c>
+      <c r="G10">
+        <v>12241600</v>
+      </c>
+      <c r="H10">
+        <v>1.6512735715103499</v>
+      </c>
+      <c r="I10">
+        <v>29088800</v>
+      </c>
+      <c r="J10">
+        <v>451.895288299897</v>
+      </c>
+      <c r="K10">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1656357135.0061901</v>
+      </c>
+      <c r="B11">
+        <v>1656357195.1116099</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>5.0324797018852898</v>
+      </c>
+      <c r="E11">
+        <v>9572000</v>
+      </c>
+      <c r="F11">
+        <v>3.99863934664794</v>
+      </c>
+      <c r="G11">
+        <v>12022400</v>
+      </c>
+      <c r="H11">
+        <v>1.69088220578377</v>
+      </c>
+      <c r="I11">
+        <v>28412800</v>
+      </c>
+      <c r="J11">
+        <v>505.43768537987802</v>
+      </c>
+      <c r="K11">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1656357195.1116099</v>
+      </c>
+      <c r="B12">
+        <v>1656357255.21595</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>5.1223249213984197</v>
+      </c>
+      <c r="E12">
+        <v>9399200</v>
+      </c>
+      <c r="F12">
+        <v>3.95657489974396</v>
+      </c>
+      <c r="G12">
+        <v>12155200</v>
+      </c>
+      <c r="H12">
+        <v>1.7311053857574099</v>
+      </c>
+      <c r="I12">
+        <v>27753600</v>
+      </c>
+      <c r="J12">
+        <v>515.92944831981094</v>
+      </c>
+      <c r="K12">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1656357255.21595</v>
+      </c>
+      <c r="B13">
+        <v>1656357315.33565</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>5.0461228354795296</v>
+      </c>
+      <c r="E13">
+        <v>9542400</v>
+      </c>
+      <c r="F13">
+        <v>3.9163047882115301</v>
+      </c>
+      <c r="G13">
+        <v>12277600</v>
+      </c>
+      <c r="H13">
+        <v>1.7729989524585399</v>
+      </c>
+      <c r="I13">
+        <v>27108000</v>
+      </c>
+      <c r="J13">
+        <v>526.01264780489703</v>
+      </c>
+      <c r="K13">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1656357315.33565</v>
+      </c>
+      <c r="B14">
+        <v>1656357375.4556401</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>5.1388025286631098</v>
+      </c>
+      <c r="E14">
+        <v>9365600</v>
+      </c>
+      <c r="F14">
+        <v>4.0021684240492599</v>
+      </c>
+      <c r="G14">
+        <v>12015200</v>
+      </c>
+      <c r="H14">
+        <v>1.7062245407141301</v>
+      </c>
+      <c r="I14">
+        <v>28393600</v>
+      </c>
+      <c r="J14">
+        <v>536.10348625994402</v>
+      </c>
+      <c r="K14">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1656357375.4556401</v>
+      </c>
+      <c r="B15">
+        <v>1656357435.59547</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>5.5234279756526004</v>
+      </c>
+      <c r="E15">
+        <v>8783200</v>
+      </c>
+      <c r="F15">
+        <v>3.9754368258033401</v>
+      </c>
+      <c r="G15">
+        <v>12109600</v>
+      </c>
+      <c r="H15">
+        <v>1.51639044341325</v>
+      </c>
+      <c r="I15">
+        <v>31694400</v>
+      </c>
+      <c r="J15">
+        <v>546.21588506500598</v>
+      </c>
+      <c r="K15">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1656357435.59547</v>
+      </c>
+      <c r="B16">
+        <v>1656357495.9458499</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>8.9106964507695903</v>
+      </c>
+      <c r="E16">
+        <v>4868446</v>
+      </c>
+      <c r="F16">
+        <v>5.8324921721266598</v>
+      </c>
+      <c r="G16">
+        <v>7445986</v>
+      </c>
+      <c r="H16">
+        <v>2.3495990055614802</v>
+      </c>
+      <c r="I16">
+        <v>18582114</v>
+      </c>
+      <c r="J16">
+        <v>459.509225421113</v>
+      </c>
+      <c r="K16">
+        <v>1701032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1656357495.9458499</v>
+      </c>
+      <c r="B17">
+        <v>1656357556.2699399</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>9.2982907997206095</v>
+      </c>
+      <c r="E17">
+        <v>4763034</v>
+      </c>
+      <c r="F17">
+        <v>6.1083922017185897</v>
+      </c>
+      <c r="G17">
+        <v>7178846</v>
+      </c>
+      <c r="H17">
+        <v>2.5422750073629699</v>
+      </c>
+      <c r="I17">
+        <v>17242082</v>
+      </c>
+      <c r="J17">
+        <v>369.89169584436701</v>
+      </c>
+      <c r="K17">
+        <v>2043982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1656357556.2699399</v>
+      </c>
+      <c r="B18">
+        <v>1656357616.4422801</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>8.6998974502535997</v>
+      </c>
+      <c r="E18">
+        <v>4799134</v>
+      </c>
+      <c r="F18">
+        <v>6.2543329095951101</v>
+      </c>
+      <c r="G18">
+        <v>6669684</v>
+      </c>
+      <c r="H18">
+        <v>2.6596326228516198</v>
+      </c>
+      <c r="I18">
+        <v>15675228</v>
+      </c>
+      <c r="J18">
+        <v>376.580379303352</v>
+      </c>
+      <c r="K18">
+        <v>1949400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1656357616.4422801</v>
+      </c>
+      <c r="B19">
+        <v>1656357676.78389</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>9.2269626539707605</v>
+      </c>
+      <c r="E19">
+        <v>4789026</v>
+      </c>
+      <c r="F19">
+        <v>6.0447610442071804</v>
+      </c>
+      <c r="G19">
+        <v>7256822</v>
+      </c>
+      <c r="H19">
+        <v>2.7397770687321801</v>
+      </c>
+      <c r="I19">
+        <v>16006740</v>
+      </c>
+      <c r="J19">
+        <v>386.64060745008197</v>
+      </c>
+      <c r="K19">
+        <v>2057700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1656357676.78389</v>
+      </c>
+      <c r="B20">
+        <v>1656357737.12656</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>8.69338091618277</v>
+      </c>
+      <c r="E20">
+        <v>4791420</v>
+      </c>
+      <c r="F20">
+        <v>6.1363515953260697</v>
+      </c>
+      <c r="G20">
+        <v>6770194</v>
+      </c>
+      <c r="H20">
+        <v>2.82687072065935</v>
+      </c>
+      <c r="I20">
+        <v>14697792</v>
+      </c>
+      <c r="J20">
+        <v>397.240160086657</v>
+      </c>
+      <c r="K20">
+        <v>1949400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD619DA-9EDF-45ED-9700-207DCCBA59E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E205D6-A068-4D72-A3F4-B098DD7D429D}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1656363295.3423901</v>
+      </c>
+      <c r="B1">
+        <v>1656363354.2676899</v>
+      </c>
+      <c r="C1">
+        <v>1000</v>
+      </c>
+      <c r="D1">
+        <v>3.3670403956731398</v>
+      </c>
+      <c r="E1">
+        <v>13388160</v>
+      </c>
+      <c r="F1">
+        <v>2.0671554346036798</v>
+      </c>
+      <c r="G1">
+        <v>21161098</v>
+      </c>
+      <c r="H1">
+        <v>0.94256377503329003</v>
+      </c>
+      <c r="I1">
+        <v>46404840</v>
+      </c>
+      <c r="J1">
+        <v>459.49000191853901</v>
+      </c>
+      <c r="K1">
+        <v>310460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1656363354.2676899</v>
+      </c>
+      <c r="B2">
+        <v>1656363414.45682</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>3.06390612338779</v>
+      </c>
+      <c r="E2">
+        <v>15101960</v>
+      </c>
+      <c r="F2">
+        <v>2.10260838168782</v>
+      </c>
+      <c r="G2">
+        <v>22028800</v>
+      </c>
+      <c r="H2">
+        <v>0.96700745954955003</v>
+      </c>
+      <c r="I2">
+        <v>47800200</v>
+      </c>
+      <c r="J2">
+        <v>451.68547025566602</v>
+      </c>
+      <c r="K2">
+        <v>646000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1656363414.45682</v>
+      </c>
+      <c r="B3">
+        <v>1656363474.6912601</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="D3">
+        <v>3.2154350817343098</v>
+      </c>
+      <c r="E3">
+        <v>15057600</v>
+      </c>
+      <c r="F3">
+        <v>2.1631113490881702</v>
+      </c>
+      <c r="G3">
+        <v>22244000</v>
+      </c>
+      <c r="H3">
+        <v>1.0296626660128601</v>
+      </c>
+      <c r="I3">
+        <v>46762400</v>
+      </c>
+      <c r="J3">
+        <v>451.33173855720298</v>
+      </c>
+      <c r="K3">
+        <v>744000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1656363474.6912601</v>
+      </c>
+      <c r="B4">
+        <v>1656363534.7160101</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4">
+        <v>3.2328159212743302</v>
+      </c>
+      <c r="E4">
+        <v>14921600</v>
+      </c>
+      <c r="F4">
+        <v>2.17564280211533</v>
+      </c>
+      <c r="G4">
+        <v>22120000</v>
+      </c>
+      <c r="H4">
+        <v>1.0420452467303101</v>
+      </c>
+      <c r="I4">
+        <v>46215200</v>
+      </c>
+      <c r="J4">
+        <v>451.80591807003202</v>
+      </c>
+      <c r="K4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1656363534.7160101</v>
+      </c>
+      <c r="B5">
+        <v>1656363594.94449</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5">
+        <v>3.4251624180738802</v>
+      </c>
+      <c r="E5">
+        <v>14024000</v>
+      </c>
+      <c r="F5">
+        <v>2.2996994440219898</v>
+      </c>
+      <c r="G5">
+        <v>20902400</v>
+      </c>
+      <c r="H5">
+        <v>1.11397215247186</v>
+      </c>
+      <c r="I5">
+        <v>43260800</v>
+      </c>
+      <c r="J5">
+        <v>451.46488097496501</v>
+      </c>
+      <c r="K5">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1656363594.94449</v>
+      </c>
+      <c r="B6">
+        <v>1656363654.96542</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>3.3931152790300598</v>
+      </c>
+      <c r="E6">
+        <v>14148000</v>
+      </c>
+      <c r="F6">
+        <v>2.2957347204024101</v>
+      </c>
+      <c r="G6">
+        <v>20945600</v>
+      </c>
+      <c r="H6">
+        <v>1.13495668361119</v>
+      </c>
+      <c r="I6">
+        <v>42332800</v>
+      </c>
+      <c r="J6">
+        <v>451.49299753320298</v>
+      </c>
+      <c r="K6">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1656363654.96542</v>
+      </c>
+      <c r="B7">
+        <v>1656363715.19174</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>3.76965813684824</v>
+      </c>
+      <c r="E7">
+        <v>11551278</v>
+      </c>
+      <c r="F7">
+        <v>2.4913926702875102</v>
+      </c>
+      <c r="G7">
+        <v>17587920</v>
+      </c>
+      <c r="H7">
+        <v>1.1440021767470601</v>
+      </c>
+      <c r="I7">
+        <v>38047956</v>
+      </c>
+      <c r="J7">
+        <v>451.19948660154398</v>
+      </c>
+      <c r="K7">
+        <v>925965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1656363715.19174</v>
+      </c>
+      <c r="B8">
+        <v>1656363775.22363</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>3.8150609511517199</v>
+      </c>
+      <c r="E8">
+        <v>10924848</v>
+      </c>
+      <c r="F8">
+        <v>2.5500278541073498</v>
+      </c>
+      <c r="G8">
+        <v>16338024</v>
+      </c>
+      <c r="H8">
+        <v>1.1612034043511501</v>
+      </c>
+      <c r="I8">
+        <v>35842968</v>
+      </c>
+      <c r="J8">
+        <v>451.33604439989898</v>
+      </c>
+      <c r="K8">
+        <v>974700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1656363775.22363</v>
+      </c>
+      <c r="B9">
+        <v>1656363835.43226</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>4.6408803930997502</v>
+      </c>
+      <c r="E9">
+        <v>10368000</v>
+      </c>
+      <c r="F9">
+        <v>2.94271440465217</v>
+      </c>
+      <c r="G9">
+        <v>16323200</v>
+      </c>
+      <c r="H9">
+        <v>1.39671870101272</v>
+      </c>
+      <c r="I9">
+        <v>34577600</v>
+      </c>
+      <c r="J9">
+        <v>450.97176877658097</v>
+      </c>
+      <c r="K9">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1656363835.43226</v>
+      </c>
+      <c r="B10">
+        <v>1656363895.4595399</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>4.7672748805213496</v>
+      </c>
+      <c r="E10">
+        <v>10076000</v>
+      </c>
+      <c r="F10">
+        <v>2.9540583324971701</v>
+      </c>
+      <c r="G10">
+        <v>16244000</v>
+      </c>
+      <c r="H10">
+        <v>1.46982269835615</v>
+      </c>
+      <c r="I10">
+        <v>32702400</v>
+      </c>
+      <c r="J10">
+        <v>450.99904700486002</v>
+      </c>
+      <c r="K10">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1656363895.4595399</v>
+      </c>
+      <c r="B11">
+        <v>1656363955.5841501</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>4.7836534544341696</v>
+      </c>
+      <c r="E11">
+        <v>10052000</v>
+      </c>
+      <c r="F11">
+        <v>2.97445536621803</v>
+      </c>
+      <c r="G11">
+        <v>16168000</v>
+      </c>
+      <c r="H11">
+        <v>1.5052859573906601</v>
+      </c>
+      <c r="I11">
+        <v>31942400</v>
+      </c>
+      <c r="J11">
+        <v>505.63365435479398</v>
+      </c>
+      <c r="K11">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1656363955.5841501</v>
+      </c>
+      <c r="B12">
+        <v>1656364015.7053699</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>4.8342218552817497</v>
+      </c>
+      <c r="E12">
+        <v>9946400</v>
+      </c>
+      <c r="F12">
+        <v>2.9453545468829501</v>
+      </c>
+      <c r="G12">
+        <v>16321600</v>
+      </c>
+      <c r="H12">
+        <v>1.5208862716173299</v>
+      </c>
+      <c r="I12">
+        <v>31595200</v>
+      </c>
+      <c r="J12">
+        <v>516.11124744983204</v>
+      </c>
+      <c r="K12">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1656364015.7053699</v>
+      </c>
+      <c r="B13">
+        <v>1656364075.8161099</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>4.8806555057171401</v>
+      </c>
+      <c r="E13">
+        <v>9850400</v>
+      </c>
+      <c r="F13">
+        <v>2.9925952281917998</v>
+      </c>
+      <c r="G13">
+        <v>16062400</v>
+      </c>
+      <c r="H13">
+        <v>1.5615259857257799</v>
+      </c>
+      <c r="I13">
+        <v>30770400</v>
+      </c>
+      <c r="J13">
+        <v>526.05162960489395</v>
+      </c>
+      <c r="K13">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1656364075.8161099</v>
+      </c>
+      <c r="B14">
+        <v>1656364135.9388599</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>4.8064785380829296</v>
+      </c>
+      <c r="E14">
+        <v>10016000</v>
+      </c>
+      <c r="F14">
+        <v>3.01447539322155</v>
+      </c>
+      <c r="G14">
+        <v>15957600</v>
+      </c>
+      <c r="H14">
+        <v>1.59279883681624</v>
+      </c>
+      <c r="I14">
+        <v>30171200</v>
+      </c>
+      <c r="J14">
+        <v>536.06946332998598</v>
+      </c>
+      <c r="K14">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1656364135.9388599</v>
+      </c>
+      <c r="B15">
+        <v>1656364196.05867</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>4.5462969038801999</v>
+      </c>
+      <c r="E15">
+        <v>10575200</v>
+      </c>
+      <c r="F15">
+        <v>2.9334953056094801</v>
+      </c>
+      <c r="G15">
+        <v>16388800</v>
+      </c>
+      <c r="H15">
+        <v>1.6330009665729199</v>
+      </c>
+      <c r="I15">
+        <v>29427200</v>
+      </c>
+      <c r="J15">
+        <v>546.12698917004104</v>
+      </c>
+      <c r="K15">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1656364196.05867</v>
+      </c>
+      <c r="B16">
+        <v>1656364256.2</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>8.0013509708229194</v>
+      </c>
+      <c r="E16">
+        <v>5495142</v>
+      </c>
+      <c r="F16">
+        <v>4.5907637086649702</v>
+      </c>
+      <c r="G16">
+        <v>9553504</v>
+      </c>
+      <c r="H16">
+        <v>2.5894383776564398</v>
+      </c>
+      <c r="I16">
+        <v>17086130</v>
+      </c>
+      <c r="J16">
+        <v>457.33823784794203</v>
+      </c>
+      <c r="K16">
+        <v>1707891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1656364256.2</v>
+      </c>
+      <c r="B17">
+        <v>1656364316.5260899</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>8.1467494524865902</v>
+      </c>
+      <c r="E17">
+        <v>5383232</v>
+      </c>
+      <c r="F17">
+        <v>4.7471208215575604</v>
+      </c>
+      <c r="G17">
+        <v>9240156</v>
+      </c>
+      <c r="H17">
+        <v>2.7273397286300698</v>
+      </c>
+      <c r="I17">
+        <v>16021180</v>
+      </c>
+      <c r="J17">
+        <v>367.82772254626201</v>
+      </c>
+      <c r="K17">
+        <v>2050841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1656364316.5260899</v>
+      </c>
+      <c r="B18">
+        <v>1656364376.6793799</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>8.34082529253552</v>
+      </c>
+      <c r="E18">
+        <v>4736016</v>
+      </c>
+      <c r="F18">
+        <v>4.5452100322255902</v>
+      </c>
+      <c r="G18">
+        <v>8688168</v>
+      </c>
+      <c r="H18">
+        <v>2.8574734277595</v>
+      </c>
+      <c r="I18">
+        <v>13819896</v>
+      </c>
+      <c r="J18">
+        <v>376.52148317337497</v>
+      </c>
+      <c r="K18">
+        <v>1846800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1656364376.6793799</v>
+      </c>
+      <c r="B19">
+        <v>1656364436.8080399</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>8.5581720318973495</v>
+      </c>
+      <c r="E19">
+        <v>5140640</v>
+      </c>
+      <c r="F19">
+        <v>4.6620195187651401</v>
+      </c>
+      <c r="G19">
+        <v>9435096</v>
+      </c>
+      <c r="H19">
+        <v>2.9136283099534399</v>
+      </c>
+      <c r="I19">
+        <v>15091966</v>
+      </c>
+      <c r="J19">
+        <v>385.86465563667298</v>
+      </c>
+      <c r="K19">
+        <v>2057700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1656364436.8080399</v>
+      </c>
+      <c r="B20">
+        <v>1656364497.1373799</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>8.5335217707726798</v>
+      </c>
+      <c r="E20">
+        <v>4871448</v>
+      </c>
+      <c r="F20">
+        <v>4.7217632349388898</v>
+      </c>
+      <c r="G20">
+        <v>8797608</v>
+      </c>
+      <c r="H20">
+        <v>3.0024700867062699</v>
+      </c>
+      <c r="I20">
+        <v>13832076</v>
+      </c>
+      <c r="J20">
+        <v>396.48539068341</v>
+      </c>
+      <c r="K20">
+        <v>1949400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8017EBDF-E7C4-439A-AEAE-69EF34D36981}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E12064D-6C80-4A8F-82ED-0F916519221F}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1656363295.3423901</v>
+      </c>
+      <c r="B1">
+        <v>1656363354.2676899</v>
+      </c>
+      <c r="C1">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3.3670403956731398</v>
+      </c>
+      <c r="E1">
+        <v>13388160</v>
+      </c>
+      <c r="F1" s="3">
+        <v>251.57940200006101</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2.06715543460367</v>
+      </c>
+      <c r="H1">
+        <v>21161098</v>
+      </c>
+      <c r="I1">
+        <v>253.11973099996899</v>
+      </c>
+      <c r="J1" s="2">
+        <v>0.94256377503329003</v>
+      </c>
+      <c r="K1">
+        <v>46404840</v>
+      </c>
+      <c r="L1" s="3">
+        <v>253.11973099996899</v>
+      </c>
+      <c r="M1" s="3">
+        <v>459.49000191853798</v>
+      </c>
+      <c r="N1">
+        <v>310460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1656363354.2676899</v>
+      </c>
+      <c r="B2">
+        <v>1656363414.45682</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.06390612338779</v>
+      </c>
+      <c r="E2">
+        <v>15101960</v>
+      </c>
+      <c r="F2" s="3">
+        <v>251.84819199967001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.10260838168782</v>
+      </c>
+      <c r="H2">
+        <v>22028800</v>
+      </c>
+      <c r="I2">
+        <v>252.55853299859101</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.96700745954955003</v>
+      </c>
+      <c r="K2">
+        <v>47800200</v>
+      </c>
+      <c r="L2" s="3">
+        <v>252.55853299859101</v>
+      </c>
+      <c r="M2" s="3">
+        <v>451.68547025566897</v>
+      </c>
+      <c r="N2">
+        <v>646000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1656363414.45682</v>
+      </c>
+      <c r="B3">
+        <v>1656363474.6912601</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.2154350817343098</v>
+      </c>
+      <c r="E3">
+        <v>15057600</v>
+      </c>
+      <c r="F3" s="3">
+        <v>251.96907099962101</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.1631113490881799</v>
+      </c>
+      <c r="H3">
+        <v>22244000</v>
+      </c>
+      <c r="I3">
+        <v>425.902413000585</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.0296626660128601</v>
+      </c>
+      <c r="K3">
+        <v>46762400</v>
+      </c>
+      <c r="L3" s="3">
+        <v>425.902413000585</v>
+      </c>
+      <c r="M3" s="3">
+        <v>451.33173855720298</v>
+      </c>
+      <c r="N3">
+        <v>744000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1656363474.6912601</v>
+      </c>
+      <c r="B4">
+        <v>1656363534.7160101</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.2328159212743302</v>
+      </c>
+      <c r="E4">
+        <v>14921600</v>
+      </c>
+      <c r="F4" s="3">
+        <v>251.91179900139099</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.17564280211533</v>
+      </c>
+      <c r="H4">
+        <v>22120000</v>
+      </c>
+      <c r="I4">
+        <v>252.395326999248</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0420452467303101</v>
+      </c>
+      <c r="K4">
+        <v>46215200</v>
+      </c>
+      <c r="L4" s="3">
+        <v>252.395326999248</v>
+      </c>
+      <c r="M4" s="3">
+        <v>451.80591807003202</v>
+      </c>
+      <c r="N4">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1656363534.7160101</v>
+      </c>
+      <c r="B5">
+        <v>1656363594.94449</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.4251624180738802</v>
+      </c>
+      <c r="E5">
+        <v>14024000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>251.86775099973599</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.29969944402198</v>
+      </c>
+      <c r="H5">
+        <v>20902400</v>
+      </c>
+      <c r="I5">
+        <v>259.09830399905297</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.11397215247185</v>
+      </c>
+      <c r="K5">
+        <v>43260800</v>
+      </c>
+      <c r="L5" s="3">
+        <v>259.09830399905297</v>
+      </c>
+      <c r="M5" s="3">
+        <v>451.46488097496501</v>
+      </c>
+      <c r="N5">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1656363594.94449</v>
+      </c>
+      <c r="B6">
+        <v>1656363654.96542</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.3931152790300598</v>
+      </c>
+      <c r="E6">
+        <v>14148000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>252.02787499983901</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.2957347204024199</v>
+      </c>
+      <c r="H6">
+        <v>20945600</v>
+      </c>
+      <c r="I6">
+        <v>263.67118999951299</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.13495668361119</v>
+      </c>
+      <c r="K6">
+        <v>42332800</v>
+      </c>
+      <c r="L6" s="3">
+        <v>263.67118999951299</v>
+      </c>
+      <c r="M6" s="3">
+        <v>451.49299753320201</v>
+      </c>
+      <c r="N6">
+        <v>960000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1656363654.96542</v>
+      </c>
+      <c r="B7">
+        <v>1656363715.19174</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.76965813684824</v>
+      </c>
+      <c r="E7">
+        <v>11551278</v>
+      </c>
+      <c r="F7" s="3">
+        <v>251.978185000552</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.4913926702875</v>
+      </c>
+      <c r="H7">
+        <v>17587920</v>
+      </c>
+      <c r="I7">
+        <v>258.75410799926601</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.1440021767470701</v>
+      </c>
+      <c r="K7">
+        <v>38047956</v>
+      </c>
+      <c r="L7" s="3">
+        <v>258.75410799926601</v>
+      </c>
+      <c r="M7" s="3">
+        <v>451.199486601545</v>
+      </c>
+      <c r="N7">
+        <v>925965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1656363715.19174</v>
+      </c>
+      <c r="B8">
+        <v>1656363775.22363</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.8150609511517199</v>
+      </c>
+      <c r="E8">
+        <v>10924848</v>
+      </c>
+      <c r="F8" s="3">
+        <v>251.92413299919201</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.55002785410736</v>
+      </c>
+      <c r="H8">
+        <v>16338024</v>
+      </c>
+      <c r="I8">
+        <v>252.49081199944999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.1612034043511501</v>
+      </c>
+      <c r="K8">
+        <v>35842968</v>
+      </c>
+      <c r="L8" s="3">
+        <v>252.49081199944999</v>
+      </c>
+      <c r="M8" s="3">
+        <v>451.33604439989398</v>
+      </c>
+      <c r="N8">
+        <v>974700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1656363775.22363</v>
+      </c>
+      <c r="B9">
+        <v>1656363835.43226</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.6408803930997502</v>
+      </c>
+      <c r="E9">
+        <v>10368000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>251.963982998859</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.9427144046521598</v>
+      </c>
+      <c r="H9">
+        <v>16323200</v>
+      </c>
+      <c r="I9">
+        <v>252.37615999867501</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.39671870101272</v>
+      </c>
+      <c r="K9">
+        <v>34577600</v>
+      </c>
+      <c r="L9" s="3">
+        <v>252.37615999867501</v>
+      </c>
+      <c r="M9" s="3">
+        <v>450.97176877657699</v>
+      </c>
+      <c r="N9">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1656363835.43226</v>
+      </c>
+      <c r="B10">
+        <v>1656363895.4595399</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.7672748805213496</v>
+      </c>
+      <c r="E10">
+        <v>10076000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>255.89507200129401</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.9540583324971701</v>
+      </c>
+      <c r="H10">
+        <v>16244000</v>
+      </c>
+      <c r="I10">
+        <v>252.37081299928801</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.46982269835615</v>
+      </c>
+      <c r="K10">
+        <v>32702400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>252.37081299928801</v>
+      </c>
+      <c r="M10" s="3">
+        <v>450.99904700486098</v>
+      </c>
+      <c r="N10">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1656363895.4595399</v>
+      </c>
+      <c r="B11">
+        <v>1656363955.5841501</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.7836534544341696</v>
+      </c>
+      <c r="E11">
+        <v>10052000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>252.17046799843899</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.9744553662180202</v>
+      </c>
+      <c r="H11">
+        <v>16168000</v>
+      </c>
+      <c r="I11">
+        <v>252.254843000628</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.5052859573906601</v>
+      </c>
+      <c r="K11">
+        <v>31942400</v>
+      </c>
+      <c r="L11" s="3">
+        <v>252.254843000628</v>
+      </c>
+      <c r="M11" s="3">
+        <v>505.633654354736</v>
+      </c>
+      <c r="N11">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1656363955.5841501</v>
+      </c>
+      <c r="B12">
+        <v>1656364015.7053699</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.8342218552817497</v>
+      </c>
+      <c r="E12">
+        <v>9946400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>252.16821799949599</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.9453545468829501</v>
+      </c>
+      <c r="H12">
+        <v>16321600</v>
+      </c>
+      <c r="I12">
+        <v>252.45628599986901</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.5208862716173299</v>
+      </c>
+      <c r="K12">
+        <v>31595200</v>
+      </c>
+      <c r="L12" s="3">
+        <v>252.45628599986901</v>
+      </c>
+      <c r="M12" s="3">
+        <v>516.11124744977099</v>
+      </c>
+      <c r="N12">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1656364015.7053699</v>
+      </c>
+      <c r="B13">
+        <v>1656364075.8161099</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.8806555057171401</v>
+      </c>
+      <c r="E13">
+        <v>9850400</v>
+      </c>
+      <c r="F13" s="3">
+        <v>253.84260899954799</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.99259522819185</v>
+      </c>
+      <c r="H13">
+        <v>16062400</v>
+      </c>
+      <c r="I13">
+        <v>253.51037699874701</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.5615259857257799</v>
+      </c>
+      <c r="K13">
+        <v>30770400</v>
+      </c>
+      <c r="L13" s="3">
+        <v>253.51037699874701</v>
+      </c>
+      <c r="M13" s="3">
+        <v>526.05162960489599</v>
+      </c>
+      <c r="N13">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1656364075.8161099</v>
+      </c>
+      <c r="B14">
+        <v>1656364135.9388599</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4.8064785380829296</v>
+      </c>
+      <c r="E14">
+        <v>10016000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>252.10618200071599</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.01447539322155</v>
+      </c>
+      <c r="H14">
+        <v>15957600</v>
+      </c>
+      <c r="I14">
+        <v>254.429808999702</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.59279883681624</v>
+      </c>
+      <c r="K14">
+        <v>30171200</v>
+      </c>
+      <c r="L14" s="3">
+        <v>254.429808999702</v>
+      </c>
+      <c r="M14" s="3">
+        <v>536.06946332999303</v>
+      </c>
+      <c r="N14">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1656364135.9388599</v>
+      </c>
+      <c r="B15">
+        <v>1656364196.05867</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.5462969038801999</v>
+      </c>
+      <c r="E15">
+        <v>10575200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>252.18537500040799</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.9334953056094801</v>
+      </c>
+      <c r="H15">
+        <v>16388800</v>
+      </c>
+      <c r="I15">
+        <v>252.39740199867799</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.6330009665729199</v>
+      </c>
+      <c r="K15">
+        <v>29427200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>252.39740199867799</v>
+      </c>
+      <c r="M15" s="3">
+        <v>546.12698917003695</v>
+      </c>
+      <c r="N15">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1656364196.05867</v>
+      </c>
+      <c r="B16">
+        <v>1656364256.2</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.0013509708229194</v>
+      </c>
+      <c r="E16">
+        <v>5495142</v>
+      </c>
+      <c r="F16" s="3">
+        <v>251.904491999084</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.59076370866498</v>
+      </c>
+      <c r="H16">
+        <v>9553504</v>
+      </c>
+      <c r="I16">
+        <v>253.381679000085</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.5894383776564398</v>
+      </c>
+      <c r="K16">
+        <v>17086130</v>
+      </c>
+      <c r="L16" s="3">
+        <v>253.381679000085</v>
+      </c>
+      <c r="M16" s="3">
+        <v>457.338237847946</v>
+      </c>
+      <c r="N16">
+        <v>1707891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1656364256.2</v>
+      </c>
+      <c r="B17">
+        <v>1656364316.5260899</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8.1467494524865902</v>
+      </c>
+      <c r="E17">
+        <v>5383232</v>
+      </c>
+      <c r="F17" s="3">
+        <v>252.04893000045499</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4.7471208215575498</v>
+      </c>
+      <c r="H17">
+        <v>9240156</v>
+      </c>
+      <c r="I17">
+        <v>257.18589499956499</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.7273397286300698</v>
+      </c>
+      <c r="K17">
+        <v>16021180</v>
+      </c>
+      <c r="L17" s="3">
+        <v>257.18589499956499</v>
+      </c>
+      <c r="M17" s="3">
+        <v>367.82772254626201</v>
+      </c>
+      <c r="N17">
+        <v>2050841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1656364316.5260899</v>
+      </c>
+      <c r="B18">
+        <v>1656364376.6793799</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8.34082529253552</v>
+      </c>
+      <c r="E18">
+        <v>4736016</v>
+      </c>
+      <c r="F18" s="3">
+        <v>252.059741000266</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4.5452100322256603</v>
+      </c>
+      <c r="H18">
+        <v>8688168</v>
+      </c>
+      <c r="I18">
+        <v>252.451063999615</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2.8574734277595102</v>
+      </c>
+      <c r="K18">
+        <v>13819896</v>
+      </c>
+      <c r="L18" s="3">
+        <v>252.451063999615</v>
+      </c>
+      <c r="M18" s="3">
+        <v>376.52148317337202</v>
+      </c>
+      <c r="N18">
+        <v>1846800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1656364376.6793799</v>
+      </c>
+      <c r="B19">
+        <v>1656364436.8080399</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8.5581720318973495</v>
+      </c>
+      <c r="E19">
+        <v>5140640</v>
+      </c>
+      <c r="F19" s="3">
+        <v>251.97868199938901</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4.6620195187651401</v>
+      </c>
+      <c r="H19">
+        <v>9435096</v>
+      </c>
+      <c r="I19">
+        <v>256.94384799862701</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2.9136283099534399</v>
+      </c>
+      <c r="K19">
+        <v>15091966</v>
+      </c>
+      <c r="L19" s="3">
+        <v>256.94384799862701</v>
+      </c>
+      <c r="M19" s="3">
+        <v>385.864655636674</v>
+      </c>
+      <c r="N19">
+        <v>2057700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1656364436.8080399</v>
+      </c>
+      <c r="B20">
+        <v>1656364497.1373799</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8.5335217707726798</v>
+      </c>
+      <c r="E20">
+        <v>4871448</v>
+      </c>
+      <c r="F20" s="3">
+        <v>251.969805000044</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4.7217632349388898</v>
+      </c>
+      <c r="H20">
+        <v>8797608</v>
+      </c>
+      <c r="I20">
+        <v>252.472328000294</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3.0024700867062699</v>
+      </c>
+      <c r="K20">
+        <v>13832076</v>
+      </c>
+      <c r="L20" s="3">
+        <v>252.472328000294</v>
+      </c>
+      <c r="M20" s="3">
+        <v>396.48539068341501</v>
+      </c>
+      <c r="N20">
+        <v>1949400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>